--- a/download/promoters/yoo-bh.xlsx
+++ b/download/promoters/yoo-bh.xlsx
@@ -12,9 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16245" windowHeight="7185" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="igem_team" sheetId="2" r:id="rId1"/>
+    <sheet name="igem_part" sheetId="1" r:id="rId2"/>
+    <sheet name="igem_obs" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="69">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,53 +183,79 @@
     <t>https://2020.igem.org/Team:Tongji_China</t>
   </si>
   <si>
-    <t>promoter</t>
+    <t>Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> valunit</t>
+  </si>
+  <si>
+    <t>incubhr</t>
+  </si>
+  <si>
+    <t>incubtemp</t>
+  </si>
+  <si>
+    <t>device_id</t>
+  </si>
+  <si>
+    <t>BBa_J23101</t>
+  </si>
+  <si>
+    <t>Fluorescence</t>
+  </si>
+  <si>
+    <t>copy number</t>
+  </si>
+  <si>
+    <t>R0051</t>
+  </si>
+  <si>
+    <t>Overnight</t>
+  </si>
+  <si>
+    <t>37℃</t>
+  </si>
+  <si>
+    <t>J04450</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBa_J23101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://parts.igem.org/Part:BBa_BBa_R0051</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concunit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>indc</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> valunit</t>
-  </si>
-  <si>
-    <t>incubhr</t>
-  </si>
-  <si>
-    <t>incubtemp</t>
-  </si>
-  <si>
-    <t>device_id</t>
-  </si>
-  <si>
-    <t>BBa_J23101</t>
-  </si>
-  <si>
-    <t>Fluorescence</t>
-  </si>
-  <si>
-    <t>copy number</t>
-  </si>
-  <si>
-    <t>R0051</t>
-  </si>
-  <si>
-    <t>Overnight</t>
-  </si>
-  <si>
-    <t>37℃</t>
-  </si>
-  <si>
-    <t>J04450</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -351,7 +377,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -380,6 +406,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -663,9 +692,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="109.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2">
+        <v>2019</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3">
+        <v>2020</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="85.5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2020</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -1034,454 +1155,450 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="5">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5">
+        <v>950</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="5">
+        <v>8</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="5">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="F3" s="5">
+        <v>1350</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="5">
+        <v>8</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="5">
+        <v>5</v>
+      </c>
+      <c r="F4" s="5">
+        <v>10</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="5">
+        <v>8</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="5">
+        <v>7</v>
+      </c>
+      <c r="F5" s="5">
+        <v>20</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="5">
+        <v>8</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="5">
+        <v>500</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="5">
+        <v>50</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="5">
+        <v>100</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="7">
+        <v>195.6</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="7">
+        <v>47</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="7">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2">
-        <v>2019</v>
-      </c>
-      <c r="E2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3">
-        <v>2020</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="85.5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2020</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>46</v>
+      <c r="G12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
-    <hyperlink ref="E4" r:id="rId2"/>
+    <hyperlink ref="K2" r:id="rId1"/>
+    <hyperlink ref="K3:K9" r:id="rId2" display="http://parts.igem.org/Part:BBa_J23101"/>
+    <hyperlink ref="K10" r:id="rId3"/>
+    <hyperlink ref="K11:K12" r:id="rId4" display="http://parts.igem.org/Part:BBa_BBa_R0051"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="5">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5">
-        <v>950</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="5">
-        <v>8</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="5">
-        <v>7</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1350</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="5">
-        <v>8</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="5">
-        <v>5</v>
-      </c>
-      <c r="E4" s="5">
-        <v>10</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="5">
-        <v>8</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="5">
-        <v>7</v>
-      </c>
-      <c r="E5" s="5">
-        <v>20</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" s="5">
-        <v>8</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="5">
-        <v>500</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1000</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="5">
-        <v>50</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="5">
-        <v>100</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="7">
-        <v>195.6</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="7">
-        <v>47</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="7">
-        <v>1</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>